--- a/ig/ft/#3-add-narative/StructureDefinition-cds-bundle-transaction-creation.xlsx
+++ b/ig/ft/#3-add-narative/StructureDefinition-cds-bundle-transaction-creation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-13T09:27:20+00:00</t>
+    <t>2024-02-13T15:25:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ft/#3-add-narative/StructureDefinition-cds-bundle-transaction-creation.xlsx
+++ b/ig/ft/#3-add-narative/StructureDefinition-cds-bundle-transaction-creation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-13T15:25:30+00:00</t>
+    <t>2024-02-13T15:39:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ft/#3-add-narative/StructureDefinition-cds-bundle-transaction-creation.xlsx
+++ b/ig/ft/#3-add-narative/StructureDefinition-cds-bundle-transaction-creation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-13T15:39:54+00:00</t>
+    <t>2024-02-13T16:36:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ft/#3-add-narative/StructureDefinition-cds-bundle-transaction-creation.xlsx
+++ b/ig/ft/#3-add-narative/StructureDefinition-cds-bundle-transaction-creation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-13T16:36:27+00:00</t>
+    <t>2024-02-14T08:58:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ft/#3-add-narative/StructureDefinition-cds-bundle-transaction-creation.xlsx
+++ b/ig/ft/#3-add-narative/StructureDefinition-cds-bundle-transaction-creation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T16:45:49+00:00</t>
+    <t>2024-02-15T16:51:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ft/#3-add-narative/StructureDefinition-cds-bundle-transaction-creation.xlsx
+++ b/ig/ft/#3-add-narative/StructureDefinition-cds-bundle-transaction-creation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T16:51:34+00:00</t>
+    <t>2024-02-15T17:14:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ft/#3-add-narative/StructureDefinition-cds-bundle-transaction-creation.xlsx
+++ b/ig/ft/#3-add-narative/StructureDefinition-cds-bundle-transaction-creation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T17:14:29+00:00</t>
+    <t>2024-02-16T10:53:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ft/#3-add-narative/StructureDefinition-cds-bundle-transaction-creation.xlsx
+++ b/ig/ft/#3-add-narative/StructureDefinition-cds-bundle-transaction-creation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-16T10:53:34+00:00</t>
+    <t>2024-02-16T11:00:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ft/#3-add-narative/StructureDefinition-cds-bundle-transaction-creation.xlsx
+++ b/ig/ft/#3-add-narative/StructureDefinition-cds-bundle-transaction-creation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-16T11:00:57+00:00</t>
+    <t>2024-02-16T16:08:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -954,7 +954,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-req-met:POST s'il s’agit d’un nouvel élément ou PUT s'il s’agit d’un élément qui existe déjà {value='POST' or value='PUT'}</t>
+req-met:null {value='POST' or value='PUT'}</t>
   </si>
   <si>
     <t>Bundle.entry:careTeam.request.url</t>
